--- a/soberano/test_cases/order_record_test_cases.xlsx
+++ b/soberano/test_cases/order_record_test_cases.xlsx
@@ -264,7 +264,7 @@
   <dimension ref="A1:AMJ42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="13:13"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
